--- a/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
+++ b/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Alexis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\SU - Suspension\05 - Essais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="11750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="11748"/>
   </bookViews>
   <sheets>
     <sheet name="Essai Rotules" sheetId="1" r:id="rId1"/>
     <sheet name="Essais collage aluminium" sheetId="2" r:id="rId2"/>
     <sheet name="Essai collage alu carbone" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,8 +187,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +206,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -406,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -417,12 +424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -466,12 +467,19 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +498,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -535,7 +543,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -659,7 +666,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -755,6 +761,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93A8-4614-A066-B3D571769B40}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -789,7 +800,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -894,7 +904,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1850,373 +1859,373 @@
   <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="15"/>
-    <col min="2" max="2" width="16.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="15"/>
-    <col min="4" max="4" width="22.453125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.90625" style="15"/>
+    <col min="1" max="1" width="10.88671875" style="13"/>
+    <col min="2" max="2" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="13"/>
+    <col min="4" max="4" width="22.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>1041</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="18"/>
+      <c r="H3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <f>(SUM(D3:D7))/5</f>
         <v>934</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="10"/>
-      <c r="C4" s="20">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="33"/>
+      <c r="C4" s="18">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>1242</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="18"/>
+      <c r="H4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <f>SUM(D8:D12)/5</f>
         <v>2241.1999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="10"/>
-      <c r="C5" s="20">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="33"/>
+      <c r="C5" s="18">
         <v>3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>584</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="18"/>
+      <c r="H5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <f>SUM(D13:D17)/5</f>
         <v>304.8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="10"/>
-      <c r="C6" s="20">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="18">
         <v>4</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>986</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="H6" s="22" t="s">
+      <c r="F6" s="18"/>
+      <c r="H6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="10"/>
-      <c r="C7" s="20">
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="18">
         <v>5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>817</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>1243</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="10"/>
-      <c r="C9" s="20">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>3000</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="10"/>
-      <c r="C10" s="20">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>1493</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="20">
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="18">
         <v>4</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>2519</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="10"/>
-      <c r="C12" s="20">
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+      <c r="C12" s="18">
         <v>5</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>2951</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>1</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>280</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-      <c r="C14" s="20">
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="33"/>
+      <c r="C14" s="18">
         <v>2</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>556</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="10"/>
-      <c r="C15" s="20">
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+      <c r="C15" s="18">
         <v>3</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>491</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="10"/>
-      <c r="C16" s="20">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="33"/>
+      <c r="C16" s="18">
         <v>4</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>24</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-      <c r="C17" s="20">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="33"/>
+      <c r="C17" s="18">
         <v>5</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>173</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="10" t="s">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="18">
         <v>232</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
-      <c r="C19" s="20">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="33"/>
+      <c r="C19" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="37">
         <v>2025</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="10"/>
-      <c r="C20" s="20">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="33"/>
+      <c r="C20" s="18">
         <v>3</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <v>236</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
-      <c r="C21" s="20">
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+      <c r="C21" s="18">
         <v>4</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <v>18</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="11"/>
-      <c r="C22" s="23">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="34"/>
+      <c r="C22" s="21">
         <v>5</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="21">
         <v>1093</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="27" t="s">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="23">
         <v>43447</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="23">
         <v>43496</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <f>_xlfn.DAYS(C25,C24)</f>
         <v>49</v>
       </c>
@@ -2246,26 +2255,26 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.90625" style="12"/>
-    <col min="3" max="3" width="19.6328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" style="12"/>
-    <col min="7" max="7" width="18.26953125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="12"/>
+    <col min="1" max="2" width="10.88671875" style="10"/>
+    <col min="3" max="3" width="19.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="10"/>
+    <col min="7" max="7" width="18.21875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -2273,14 +2282,14 @@
       </c>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="30">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>8950</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="35" t="s">
@@ -2288,14 +2297,14 @@
       </c>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="30">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="28">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>14539</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="35" t="s">
@@ -2303,14 +2312,14 @@
       </c>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="30">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>9182</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="35" t="s">
@@ -2318,88 +2327,88 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="30">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>6940</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="30">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>13350</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="30">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>12240</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="30">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="28">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>8500</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="30">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>9140</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="30">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="28">
         <v>9</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>10710</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="32">
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="30">
         <v>10</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>9630</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="32">
         <f>AVERAGEA(C3:C12)</f>
         <v>10318.1</v>
       </c>
@@ -2429,13 +2438,13 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2446,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -2466,7 +2475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -2476,7 +2485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -2486,42 +2495,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>10</v>
       </c>

--- a/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
+++ b/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="11748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="11748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Essai Rotules" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Ajustement</t>
   </si>
@@ -139,9 +139,6 @@
     <t>rotule sortie de l'alésage dès les premiers instants</t>
   </si>
   <si>
-    <t>résultat précédent la casse machine lors de la première séance</t>
-  </si>
-  <si>
     <t>Date essai :</t>
   </si>
   <si>
@@ -181,14 +178,55 @@
     <t>collage10</t>
   </si>
   <si>
-    <t xml:space="preserve">Moyenne </t>
+    <t>Valeur de référence :</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000 N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lors d'un bump 3G sur les inserts côté PM</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> reprennant les efforts des biellettes de suspensions</t>
+  </si>
+  <si>
+    <t>Ecart-type</t>
+  </si>
+  <si>
+    <t>enlevé car résultat précédent la casse machine lors de la première séance</t>
+  </si>
+  <si>
+    <t>facile</t>
+  </si>
+  <si>
+    <t>Ecart-type (N)</t>
+  </si>
+  <si>
+    <t>Moyenne (N)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +257,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -409,11 +461,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -440,7 +555,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -467,6 +581,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,7 +594,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,6 +683,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -666,6 +807,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -800,6 +942,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -904,6 +1047,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1564,14 +1708,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>170879</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1282699</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>107951</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>54611</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1856,389 +2000,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="13"/>
     <col min="2" max="2" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="13"/>
-    <col min="4" max="4" width="22.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.88671875" style="13"/>
+    <col min="3" max="4" width="16.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="13"/>
+    <col min="6" max="6" width="22.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.88671875" style="13"/>
+    <col min="13" max="13" width="10.88671875" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="10.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="38">
+        <f>AVERAGE(F3:F7)</f>
+        <v>934</v>
+      </c>
+      <c r="D3" s="38">
+        <f>STDEV(F3:F7)</f>
+        <v>247.59139726573702</v>
+      </c>
+      <c r="E3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="18">
+      <c r="F3" s="18">
         <v>1041</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="H3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18">
-        <f>(SUM(D3:D7))/5</f>
-        <v>934</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="33"/>
-      <c r="C4" s="18">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="18">
         <v>2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="F4" s="18">
         <v>1242</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="H4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="18">
-        <f>SUM(D8:D12)/5</f>
-        <v>2241.1999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="44"/>
+      <c r="M4" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
-      <c r="C5" s="18">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="18">
         <v>3</v>
       </c>
-      <c r="D5" s="18">
+      <c r="F5" s="18">
         <v>584</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="H5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="18">
-        <f>SUM(D13:D17)/5</f>
-        <v>304.8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="44"/>
+      <c r="M5" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="33"/>
-      <c r="C6" s="18">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="18">
         <v>4</v>
       </c>
-      <c r="D6" s="18">
+      <c r="F6" s="18">
         <v>986</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="H6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="33"/>
-      <c r="C7" s="18">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="18">
         <v>5</v>
       </c>
-      <c r="D7" s="18">
+      <c r="F7" s="18">
         <v>817</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="44"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="38">
+        <f>AVERAGE(F8:F12)</f>
+        <v>2241.1999999999998</v>
+      </c>
+      <c r="D8" s="38">
+        <f>STDEV(F8:F12)</f>
+        <v>823.55521976367811</v>
+      </c>
+      <c r="E8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
+      <c r="F8" s="18">
         <v>1243</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="33"/>
-      <c r="C9" s="18">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="F9" s="18">
         <v>3000</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="44"/>
+      <c r="I9" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="33"/>
-      <c r="C10" s="18">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="18">
+      <c r="F10" s="18">
         <v>1493</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="33"/>
-      <c r="C11" s="18">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="18">
         <v>4</v>
       </c>
-      <c r="D11" s="18">
+      <c r="F11" s="18">
         <v>2519</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="44"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="33"/>
-      <c r="C12" s="18">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="18">
         <v>5</v>
       </c>
-      <c r="D12" s="18">
+      <c r="F12" s="18">
         <v>2951</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="G12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="38">
+        <f>AVERAGE(F13:F17)</f>
+        <v>304.8</v>
+      </c>
+      <c r="D13" s="38">
+        <f>STDEV(F13:F17)</f>
+        <v>220.57130366391726</v>
+      </c>
+      <c r="E13" s="18">
         <v>1</v>
       </c>
-      <c r="D13" s="18">
+      <c r="F13" s="18">
         <v>280</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
-      <c r="C14" s="18">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="18">
         <v>2</v>
       </c>
-      <c r="D14" s="18">
+      <c r="F14" s="18">
         <v>556</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="33"/>
-      <c r="C15" s="18">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="18">
         <v>3</v>
       </c>
-      <c r="D15" s="18">
+      <c r="F15" s="18">
         <v>491</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="33"/>
-      <c r="C16" s="18">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="18">
         <v>4</v>
       </c>
-      <c r="D16" s="18">
+      <c r="F16" s="18">
         <v>24</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="G16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="13" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
-      <c r="C17" s="18">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="18">
         <v>5</v>
       </c>
-      <c r="D17" s="18">
+      <c r="F17" s="18">
         <v>173</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="G17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="38">
+        <f>(F18+SUM(F20:F22))/4</f>
+        <v>394.75</v>
+      </c>
+      <c r="D18" s="38">
+        <f>STDEV(F18:F18,F20:F22)</f>
+        <v>476.50909400206274</v>
+      </c>
+      <c r="E18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="18">
+      <c r="F18" s="18">
         <v>232</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="33"/>
-      <c r="C19" s="18">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="37">
+      <c r="F19" s="32">
         <v>2025</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="G19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="13" t="s">
+      <c r="H19" s="44"/>
+      <c r="I19" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="33"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="18">
+        <v>3</v>
+      </c>
+      <c r="F20" s="18">
+        <v>236</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="18">
+        <v>4</v>
+      </c>
+      <c r="F21" s="18">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="20">
+        <v>5</v>
+      </c>
+      <c r="F22" s="20">
+        <v>1093</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="22">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
-      <c r="C20" s="18">
-        <v>3</v>
-      </c>
-      <c r="D20" s="18">
-        <v>236</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
-      <c r="C21" s="18">
-        <v>4</v>
-      </c>
-      <c r="D21" s="18">
-        <v>18</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
-      <c r="C22" s="21">
-        <v>5</v>
-      </c>
-      <c r="D22" s="21">
-        <v>1093</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="22">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="23">
-        <v>43447</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="23">
-        <v>43496</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="24">
-        <f>_xlfn.DAYS(C25,C24)</f>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23">
+        <f>_xlfn.DAYS(E25,E24)</f>
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="H3:H22"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C22"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
       <formula1>"Très facile, facile,Modéré,Difficil,Très difficil"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2249,15 +2463,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.88671875" style="10"/>
+    <col min="1" max="1" width="10.88671875" style="10"/>
+    <col min="2" max="2" width="13" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.109375" style="10" customWidth="1"/>
@@ -2268,10 +2483,10 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -2283,14 +2498,14 @@
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>1</v>
       </c>
       <c r="C3" s="11">
         <v>8950</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>41</v>
+      <c r="D3" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>9</v>
@@ -2298,14 +2513,14 @@
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>2</v>
       </c>
       <c r="C4" s="11">
         <v>14539</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>42</v>
+      <c r="D4" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>11</v>
@@ -2313,14 +2528,14 @@
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>3</v>
       </c>
       <c r="C5" s="11">
         <v>9182</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>43</v>
+      <c r="D5" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>10</v>
@@ -2328,89 +2543,98 @@
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>4</v>
       </c>
       <c r="C6" s="11">
         <v>6940</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>44</v>
+      <c r="D6" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>5</v>
       </c>
       <c r="C7" s="11">
         <v>13350</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>45</v>
+      <c r="D7" s="28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>6</v>
       </c>
       <c r="C8" s="11">
         <v>12240</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>46</v>
+      <c r="D8" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>7</v>
       </c>
       <c r="C9" s="11">
         <v>8500</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>47</v>
+      <c r="D9" s="28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>8</v>
       </c>
       <c r="C10" s="11">
         <v>9140</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>48</v>
+      <c r="D10" s="28" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>9</v>
       </c>
       <c r="C11" s="11">
         <v>10710</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>49</v>
+      <c r="D11" s="28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>10</v>
       </c>
       <c r="C12" s="12">
         <v>9630</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>50</v>
+      <c r="D12" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="32">
+      <c r="B13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="31">
         <f>AVERAGEA(C3:C12)</f>
         <v>10318.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="46">
+        <f>STDEV(C3:C12)</f>
+        <v>2371.0421735787168</v>
       </c>
     </row>
   </sheetData>

--- a/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
+++ b/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\SU - Suspension\05 - Essais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Alexis\Documents\GitHub\STUF2019\SU - Suspension\05 - Essais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="11748" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="11750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Essai Rotules" sheetId="1" r:id="rId1"/>
     <sheet name="Essais collage aluminium" sheetId="2" r:id="rId2"/>
     <sheet name="Essai collage alu carbone" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Ajustement</t>
   </si>
@@ -221,11 +221,14 @@
   <si>
     <t>Moyenne (N)</t>
   </si>
+  <si>
+    <t>Ecart Type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,19 +585,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,7 +602,6 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,8 +611,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +641,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -805,7 +808,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -903,7 +906,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-93A8-4614-A066-B3D571769B40}"/>
             </c:ext>
@@ -920,11 +923,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2042258800"/>
-        <c:axId val="-2042267504"/>
+        <c:axId val="-210845008"/>
+        <c:axId val="-210843376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2042258800"/>
+        <c:axId val="-210845008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1010,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2042267504"/>
+        <c:crossAx val="-210843376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1015,7 +1018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2042267504"/>
+        <c:axId val="-210843376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1109,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2042258800"/>
+        <c:crossAx val="-210845008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2003,32 +2006,32 @@
   <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B24" sqref="B24:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="13"/>
-    <col min="2" max="2" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="13"/>
-    <col min="6" max="6" width="22.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.88671875" style="13"/>
-    <col min="13" max="13" width="10.88671875" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="10.88671875" style="13"/>
+    <col min="1" max="1" width="10.90625" style="13"/>
+    <col min="2" max="2" width="16.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="13"/>
+    <col min="6" max="6" width="22.453125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.90625" style="13"/>
+    <col min="13" max="13" width="10.90625" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="10.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -2044,15 +2047,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="36">
         <f>AVERAGE(F3:F7)</f>
         <v>934</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="36">
         <f>STDEV(F3:F7)</f>
         <v>247.59139726573702</v>
       </c>
@@ -2065,17 +2068,17 @@
       <c r="G3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="43"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="18">
         <v>2</v>
       </c>
@@ -2085,15 +2088,15 @@
       <c r="G4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="41"/>
       <c r="M4" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="43"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="18">
         <v>3</v>
       </c>
@@ -2103,15 +2106,15 @@
       <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="44"/>
+      <c r="H5" s="41"/>
       <c r="M5" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="43"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="18">
         <v>4</v>
       </c>
@@ -2121,12 +2124,12 @@
       <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="43"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="18">
         <v>5</v>
       </c>
@@ -2136,17 +2139,17 @@
       <c r="G7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="44"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="36">
         <f>AVERAGE(F8:F12)</f>
         <v>2241.1999999999998</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <f>STDEV(F8:F12)</f>
         <v>823.55521976367811</v>
       </c>
@@ -2159,12 +2162,12 @@
       <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="43"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="18">
         <v>2</v>
       </c>
@@ -2174,15 +2177,15 @@
       <c r="G9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="43"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="18">
         <v>3</v>
       </c>
@@ -2192,12 +2195,12 @@
       <c r="G10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="43"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="18">
         <v>4</v>
       </c>
@@ -2207,12 +2210,12 @@
       <c r="G11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="43"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="18">
         <v>5</v>
       </c>
@@ -2222,17 +2225,17 @@
       <c r="G12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="36">
         <f>AVERAGE(F13:F17)</f>
         <v>304.8</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <f>STDEV(F13:F17)</f>
         <v>220.57130366391726</v>
       </c>
@@ -2245,12 +2248,12 @@
       <c r="G13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="43"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="18">
         <v>2</v>
       </c>
@@ -2260,12 +2263,12 @@
       <c r="G14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="43"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="18">
         <v>3</v>
       </c>
@@ -2275,12 +2278,12 @@
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="44"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="43"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="18">
         <v>4</v>
       </c>
@@ -2290,15 +2293,15 @@
       <c r="G16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="44"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="43"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="18">
         <v>5</v>
       </c>
@@ -2308,17 +2311,17 @@
       <c r="G17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="44"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="36">
         <f>(F18+SUM(F20:F22))/4</f>
         <v>394.75</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <f>STDEV(F18:F18,F20:F22)</f>
         <v>476.50909400206274</v>
       </c>
@@ -2331,12 +2334,12 @@
       <c r="G18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="43"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="18">
         <v>2</v>
       </c>
@@ -2346,15 +2349,15 @@
       <c r="G19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="43"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="18">
         <v>3</v>
       </c>
@@ -2364,12 +2367,12 @@
       <c r="G20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="44"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="43"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="18">
         <v>4</v>
       </c>
@@ -2379,12 +2382,12 @@
       <c r="G21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="44"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="20">
         <v>5</v>
       </c>
@@ -2394,9 +2397,9 @@
       <c r="G22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="45"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2404,7 +2407,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="24" t="s">
         <v>38</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="24" t="s">
         <v>37</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
@@ -2437,11 +2440,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="H3:H22"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
@@ -2450,6 +2448,11 @@
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="H3:H22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
@@ -2465,24 +2468,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="10"/>
+    <col min="1" max="1" width="10.90625" style="10"/>
     <col min="2" max="2" width="13" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="10"/>
-    <col min="7" max="7" width="18.21875" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="10"/>
+    <col min="3" max="3" width="19.6328125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" style="10"/>
+    <col min="7" max="7" width="18.1796875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
@@ -2492,12 +2495,12 @@
       <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="27">
         <v>1</v>
       </c>
@@ -2507,12 +2510,12 @@
       <c r="D3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="27">
         <v>2</v>
       </c>
@@ -2522,12 +2525,12 @@
       <c r="D4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="27">
         <v>3</v>
       </c>
@@ -2537,12 +2540,12 @@
       <c r="D5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="27">
         <v>5</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="27">
         <v>6</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="27">
         <v>7</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="27">
         <v>8</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="29">
         <v>10</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="30" t="s">
         <v>57</v>
       </c>
@@ -2628,11 +2631,11 @@
         <v>10318.1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="35">
         <f>STDEV(C3:C12)</f>
         <v>2371.0421735787168</v>
       </c>
@@ -2656,19 +2659,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2679,87 +2682,154 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>10937</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>12304</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>14291</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>13740</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="H6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>13828</v>
+      </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>12420</v>
+      </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>11596</v>
+      </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>12125</v>
+      </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>13800</v>
+      </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <v>11432</v>
+      </c>
       <c r="D12" s="8"/>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGEA(C3:C12)</f>
+        <v>12647.3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <f>STDEV(C3:C12)</f>
+        <v>1181.7191854807695</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="22">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="22">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23">
+        <f>_xlfn.DAYS(E17,E16)</f>
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
+++ b/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Alexis\Documents\GitHub\STUF2019\SU - Suspension\05 - Essais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\SU - Suspension\05 - Essais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="11750" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="11748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Essai Rotules" sheetId="1" r:id="rId1"/>
     <sheet name="Essais collage aluminium" sheetId="2" r:id="rId2"/>
     <sheet name="Essai collage alu carbone" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,6 +590,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,12 +615,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,7 +641,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -661,22 +661,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -700,22 +694,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="fr-FR"/>
@@ -733,42 +721,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -786,10 +745,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -808,7 +768,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -816,9 +776,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -906,7 +866,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-93A8-4614-A066-B3D571769B40}"/>
             </c:ext>
@@ -921,8 +881,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="199"/>
         <c:axId val="-210845008"/>
         <c:axId val="-210843376"/>
       </c:barChart>
@@ -959,10 +918,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -980,11 +940,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -996,10 +956,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1028,9 +989,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1038,6 +999,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:strRef>
@@ -1064,10 +1039,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1097,8 +1073,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1126,28 +1103,578 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Essais collage alu-carbone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Essai collage alu carbone'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AD3-430E-BFAB-B182394D1642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Essai collage alu carbone'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13828</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AD3-430E-BFAB-B182394D1642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-210845008"/>
+        <c:axId val="-210843376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-210845008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Essais collage aluminium'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N° essai</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-210843376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-210843376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Essais collage aluminium'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Charge à rupture (N)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-210845008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1209,79 +1736,114 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1292,13 +1854,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1308,35 +1873,540 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1348,31 +2418,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1388,18 +2457,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1409,20 +2481,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1433,17 +2505,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1452,13 +2524,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1470,22 +2543,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1497,103 +2576,96 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1601,14 +2673,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1620,19 +2692,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1641,13 +2706,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1656,8 +2722,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1667,7 +2734,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1675,9 +2742,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1688,8 +2755,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1699,8 +2767,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1724,6 +2798,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238759</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119952</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2009,22 +3120,22 @@
       <selection activeCell="B24" sqref="B24:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="13"/>
-    <col min="2" max="2" width="16.6328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6328125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="13"/>
-    <col min="6" max="6" width="22.453125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.90625" style="13"/>
-    <col min="13" max="13" width="10.90625" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="10.90625" style="13"/>
+    <col min="1" max="1" width="10.88671875" style="13"/>
+    <col min="2" max="2" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="13"/>
+    <col min="6" max="6" width="22.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.88671875" style="13"/>
+    <col min="13" max="13" width="10.88671875" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="10.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -2047,15 +3158,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="38">
         <f>AVERAGE(F3:F7)</f>
         <v>934</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="38">
         <f>STDEV(F3:F7)</f>
         <v>247.59139726573702</v>
       </c>
@@ -2068,17 +3179,17 @@
       <c r="G3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="42" t="s">
         <v>55</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="43"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="18">
         <v>2</v>
       </c>
@@ -2088,15 +3199,15 @@
       <c r="G4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="43"/>
       <c r="M4" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="43"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="18">
         <v>3</v>
       </c>
@@ -2106,15 +3217,15 @@
       <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="43"/>
       <c r="M5" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="43"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="18">
         <v>4</v>
       </c>
@@ -2124,12 +3235,12 @@
       <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="41"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="43"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="36"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="18">
         <v>5</v>
       </c>
@@ -2139,17 +3250,17 @@
       <c r="G7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="43" t="s">
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="38">
         <f>AVERAGE(F8:F12)</f>
         <v>2241.1999999999998</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="38">
         <f>STDEV(F8:F12)</f>
         <v>823.55521976367811</v>
       </c>
@@ -2162,12 +3273,12 @@
       <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="41"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="43"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="18">
         <v>2</v>
       </c>
@@ -2177,15 +3288,15 @@
       <c r="G9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="43"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="18">
         <v>3</v>
       </c>
@@ -2195,12 +3306,12 @@
       <c r="G10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="43"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="18">
         <v>4</v>
       </c>
@@ -2210,12 +3321,12 @@
       <c r="G11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="43"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="36"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="18">
         <v>5</v>
       </c>
@@ -2225,17 +3336,17 @@
       <c r="G12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="43" t="s">
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="38">
         <f>AVERAGE(F13:F17)</f>
         <v>304.8</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="38">
         <f>STDEV(F13:F17)</f>
         <v>220.57130366391726</v>
       </c>
@@ -2248,12 +3359,12 @@
       <c r="G13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="43"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="18">
         <v>2</v>
       </c>
@@ -2263,12 +3374,12 @@
       <c r="G14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="43"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="18">
         <v>3</v>
       </c>
@@ -2278,12 +3389,12 @@
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="43"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="18">
         <v>4</v>
       </c>
@@ -2293,15 +3404,15 @@
       <c r="G16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="43"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="36"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="18">
         <v>5</v>
       </c>
@@ -2311,17 +3422,17 @@
       <c r="G17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="43" t="s">
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="38">
         <f>(F18+SUM(F20:F22))/4</f>
         <v>394.75</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="38">
         <f>STDEV(F18:F18,F20:F22)</f>
         <v>476.50909400206274</v>
       </c>
@@ -2334,12 +3445,12 @@
       <c r="G18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="43"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="18">
         <v>2</v>
       </c>
@@ -2349,15 +3460,15 @@
       <c r="G19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="43"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="18">
         <v>3</v>
       </c>
@@ -2367,12 +3478,12 @@
       <c r="G20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="43"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="18">
         <v>4</v>
       </c>
@@ -2382,12 +3493,12 @@
       <c r="G21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="44"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="37"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="20">
         <v>5</v>
       </c>
@@ -2397,9 +3508,9 @@
       <c r="G22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H22" s="44"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2407,7 +3518,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
         <v>38</v>
       </c>
@@ -2417,7 +3528,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
         <v>37</v>
       </c>
@@ -2427,7 +3538,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
@@ -2440,6 +3551,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="H3:H22"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
@@ -2448,11 +3564,6 @@
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="H3:H22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
@@ -2468,24 +3579,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="10"/>
+    <col min="1" max="1" width="10.88671875" style="10"/>
     <col min="2" max="2" width="13" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" style="10"/>
-    <col min="7" max="7" width="18.1796875" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="10"/>
+    <col min="3" max="3" width="19.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="10"/>
+    <col min="7" max="7" width="18.21875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
@@ -2500,7 +3611,7 @@
       </c>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="27">
         <v>1</v>
       </c>
@@ -2515,7 +3626,7 @@
       </c>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="27">
         <v>2</v>
       </c>
@@ -2530,7 +3641,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="27">
         <v>3</v>
       </c>
@@ -2545,7 +3656,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -2556,7 +3667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="27">
         <v>5</v>
       </c>
@@ -2567,7 +3678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="27">
         <v>6</v>
       </c>
@@ -2578,7 +3689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>7</v>
       </c>
@@ -2589,7 +3700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="27">
         <v>8</v>
       </c>
@@ -2600,7 +3711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -2611,7 +3722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="29">
         <v>10</v>
       </c>
@@ -2622,7 +3733,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="30" t="s">
         <v>57</v>
       </c>
@@ -2631,7 +3742,7 @@
         <v>10318.1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>56</v>
       </c>
@@ -2661,17 +3772,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2682,7 +3793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -2694,7 +3805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -2706,7 +3817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -2718,7 +3829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -2730,7 +3841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -2739,7 +3850,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -2748,7 +3859,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -2757,7 +3868,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -2766,7 +3877,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -2775,7 +3886,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -2791,7 +3902,7 @@
         <v>12647.3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>58</v>
       </c>
@@ -2800,7 +3911,7 @@
         <v>1181.7191854807695</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
         <v>38</v>
       </c>
@@ -2810,7 +3921,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>37</v>
       </c>
@@ -2820,7 +3931,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
         <v>39</v>
       </c>
@@ -2833,5 +3944,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
+++ b/SU - Suspension/05 - Essais/Essais_traction_31_01_2019.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\SU - Suspension\05 - Essais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Alexis\Documents\GitHub\STUF2019\SU - Suspension\05 - Essais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="11748" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="11750" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Essai Rotules" sheetId="1" r:id="rId1"/>
     <sheet name="Essais collage aluminium" sheetId="2" r:id="rId2"/>
     <sheet name="Essai collage alu carbone" sheetId="3" r:id="rId3"/>
+    <sheet name="Témoins" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Ajustement</t>
   </si>
@@ -224,11 +225,29 @@
   <si>
     <t>Ecart Type</t>
   </si>
+  <si>
+    <t>collage alu alu</t>
+  </si>
+  <si>
+    <t>charge rupture</t>
+  </si>
+  <si>
+    <t>carbone alu 1</t>
+  </si>
+  <si>
+    <t>carbone alu 2</t>
+  </si>
+  <si>
+    <t>carbone alu 3</t>
+  </si>
+  <si>
+    <t>10073 (vis)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,12 +609,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,6 +628,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,7 +660,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -768,7 +787,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -866,7 +885,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-93A8-4614-A066-B3D571769B40}"/>
             </c:ext>
@@ -882,11 +901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="199"/>
-        <c:axId val="-210845008"/>
-        <c:axId val="-210843376"/>
+        <c:axId val="-459511040"/>
+        <c:axId val="-459512128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-210845008"/>
+        <c:axId val="-459511040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +990,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210843376"/>
+        <c:crossAx val="-459512128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -979,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-210843376"/>
+        <c:axId val="-459512128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1105,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210845008"/>
+        <c:crossAx val="-459511040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1136,7 +1155,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1263,7 +1282,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1323,7 +1342,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AD3-430E-BFAB-B182394D1642}"/>
             </c:ext>
@@ -1380,7 +1399,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1440,7 +1459,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AD3-430E-BFAB-B182394D1642}"/>
             </c:ext>
@@ -1457,11 +1476,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-210845008"/>
-        <c:axId val="-210843376"/>
+        <c:axId val="-459505600"/>
+        <c:axId val="-459505056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-210845008"/>
+        <c:axId val="-459505600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210843376"/>
+        <c:crossAx val="-459505056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1554,7 +1573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-210843376"/>
+        <c:axId val="-459505056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1666,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210845008"/>
+        <c:crossAx val="-459505600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,25 +3136,25 @@
   <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:E26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="13"/>
-    <col min="2" max="2" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="13"/>
-    <col min="6" max="6" width="22.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.88671875" style="13"/>
-    <col min="13" max="13" width="10.88671875" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="10.88671875" style="13"/>
+    <col min="1" max="1" width="10.90625" style="13"/>
+    <col min="2" max="2" width="16.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="13"/>
+    <col min="6" max="6" width="22.453125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.90625" style="13"/>
+    <col min="13" max="13" width="10.90625" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="10.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3158,15 +3177,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="36">
         <f>AVERAGE(F3:F7)</f>
         <v>934</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="36">
         <f>STDEV(F3:F7)</f>
         <v>247.59139726573702</v>
       </c>
@@ -3179,17 +3198,17 @@
       <c r="G3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="40" t="s">
         <v>55</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="43"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="18">
         <v>2</v>
       </c>
@@ -3199,15 +3218,15 @@
       <c r="G4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="41"/>
       <c r="M4" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="43"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="18">
         <v>3</v>
       </c>
@@ -3217,15 +3236,15 @@
       <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="41"/>
       <c r="M5" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="43"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="18">
         <v>4</v>
       </c>
@@ -3235,12 +3254,12 @@
       <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="43"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="43"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="18">
         <v>5</v>
       </c>
@@ -3250,17 +3269,17 @@
       <c r="G7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="36">
         <f>AVERAGE(F8:F12)</f>
         <v>2241.1999999999998</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <f>STDEV(F8:F12)</f>
         <v>823.55521976367811</v>
       </c>
@@ -3273,12 +3292,12 @@
       <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="43"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="18">
         <v>2</v>
       </c>
@@ -3288,15 +3307,15 @@
       <c r="G9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="43"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="43"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="18">
         <v>3</v>
       </c>
@@ -3306,12 +3325,12 @@
       <c r="G10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="43"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="18">
         <v>4</v>
       </c>
@@ -3321,12 +3340,12 @@
       <c r="G11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="36"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="43"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="18">
         <v>5</v>
       </c>
@@ -3336,17 +3355,17 @@
       <c r="G12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="36">
         <f>AVERAGE(F13:F17)</f>
         <v>304.8</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <f>STDEV(F13:F17)</f>
         <v>220.57130366391726</v>
       </c>
@@ -3359,12 +3378,12 @@
       <c r="G13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="43"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="18">
         <v>2</v>
       </c>
@@ -3374,12 +3393,12 @@
       <c r="G14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="43"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="18">
         <v>3</v>
       </c>
@@ -3389,12 +3408,12 @@
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="43"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="18">
         <v>4</v>
       </c>
@@ -3404,15 +3423,15 @@
       <c r="G16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="43"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="18">
         <v>5</v>
       </c>
@@ -3422,17 +3441,17 @@
       <c r="G17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="36">
         <f>(F18+SUM(F20:F22))/4</f>
         <v>394.75</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <f>STDEV(F18:F18,F20:F22)</f>
         <v>476.50909400206274</v>
       </c>
@@ -3445,12 +3464,12 @@
       <c r="G18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="36"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="43"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="18">
         <v>2</v>
       </c>
@@ -3460,15 +3479,15 @@
       <c r="G19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="43"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="43"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="18">
         <v>3</v>
       </c>
@@ -3478,12 +3497,12 @@
       <c r="G20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="43"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="18">
         <v>4</v>
       </c>
@@ -3493,12 +3512,12 @@
       <c r="G21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="37"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="44"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="20">
         <v>5</v>
       </c>
@@ -3508,9 +3527,9 @@
       <c r="G22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3518,7 +3537,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="24" t="s">
         <v>38</v>
       </c>
@@ -3528,7 +3547,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="24" t="s">
         <v>37</v>
       </c>
@@ -3538,7 +3557,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
@@ -3551,11 +3570,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="H3:H22"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
@@ -3564,6 +3578,11 @@
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="H3:H22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
@@ -3579,24 +3598,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="10"/>
+    <col min="1" max="1" width="10.90625" style="10"/>
     <col min="2" max="2" width="13" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="10"/>
-    <col min="7" max="7" width="18.21875" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="10"/>
+    <col min="3" max="3" width="19.6328125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" style="10"/>
+    <col min="7" max="7" width="18.1796875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
@@ -3611,7 +3630,7 @@
       </c>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="27">
         <v>1</v>
       </c>
@@ -3626,7 +3645,7 @@
       </c>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="27">
         <v>2</v>
       </c>
@@ -3641,7 +3660,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="27">
         <v>3</v>
       </c>
@@ -3656,7 +3675,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -3667,7 +3686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="27">
         <v>5</v>
       </c>
@@ -3678,7 +3697,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="27">
         <v>6</v>
       </c>
@@ -3689,7 +3708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="27">
         <v>7</v>
       </c>
@@ -3700,7 +3719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="27">
         <v>8</v>
       </c>
@@ -3711,7 +3730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -3722,7 +3741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="29">
         <v>10</v>
       </c>
@@ -3733,7 +3752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="30" t="s">
         <v>57</v>
       </c>
@@ -3742,7 +3761,7 @@
         <v>10318.1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="30" t="s">
         <v>56</v>
       </c>
@@ -3772,17 +3791,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3793,7 +3812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -3805,7 +3824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -3817,7 +3836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -3829,7 +3848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -3841,7 +3860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -3850,7 +3869,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -3859,7 +3878,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -3868,7 +3887,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -3877,7 +3896,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -3886,7 +3905,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -3902,7 +3921,7 @@
         <v>12647.3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>58</v>
       </c>
@@ -3911,7 +3930,7 @@
         <v>1181.7191854807695</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="24" t="s">
         <v>38</v>
       </c>
@@ -3921,7 +3940,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
         <v>37</v>
       </c>
@@ -3931,7 +3950,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
         <v>39</v>
       </c>
@@ -3946,4 +3965,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>15791</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>